--- a/dashboards/src/localization/json/localization.xlsx
+++ b/dashboards/src/localization/json/localization.xlsx
@@ -55,16 +55,16 @@
     <t xml:space="preserve">store::buildData::DEFAULT_RECORD_BUILD_DATA_ERROR</t>
   </si>
   <si>
-    <t xml:space="preserve">Ошибка загрузки данных. Измените параметры построения.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data loading error. Change the setting.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fehler beim Laden von Daten. Ändern Sie die Einstellung.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Błąd ładowania danych. Zmienić ustawienie.</t>
+    <t xml:space="preserve">По указанным данным невозможно построить таблицу (недостаточно данных). Измените, пожалуйста, параметры.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is impossible to make a table from the specified data (not enough data). Please change the parameters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es ist unmöglich, aus den angegebenen Daten eine Tabelle zu zeichnen (unzureichende Daten). Bitte ändern Sie die Parameter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nie można utworzyć tabeli z podanych danych (za mało danych). Proszę zmienić parametry.</t>
   </si>
   <si>
     <t xml:space="preserve">store::buildData::DEFAULT_RECORD_BUILD_DIAGRAM_ERROR</t>
@@ -73,13 +73,13 @@
     <t xml:space="preserve">По указанным данным невозможно нарисовать диаграмму (недостаточно данных). Измените, пожалуйста, параметры.</t>
   </si>
   <si>
-    <t xml:space="preserve">It is not possible to draw a diagram with the specified configuration. Please change the settings.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es ist nicht möglich, ein Diagramm mit der angegebenen Konfiguration zu zeichnen. Bitte ändern Sie die Einstellungen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nie jest możliwe narysowanie diagramu w podanej konfiguracji. Proszę zmienić ustawienia.</t>
+    <t xml:space="preserve">It is impossible to make a diagram from the specified data (not enough data). Please change the parameters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es ist unmöglich, aus den angegebenen Daten ein Diagramm zu zeichnen (unzureichende Daten). Bitte ändern Sie die Parameter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nie można utworzyć diagramu z podanych danych (za mało danych). Proszę zmienić parametry.</t>
   </si>
 </sst>
 </file>
@@ -89,11 +89,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -115,6 +116,11 @@
       <name val="Droid Sans Mono"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Droid Sans Mono"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,15 +175,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -200,13 +206,13 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="39.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="29.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="56.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="62.11"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="11.52"/>
   </cols>
   <sheetData>
@@ -228,16 +234,16 @@
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -245,50 +251,50 @@
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/dashboards/src/localization/json/localization.xlsx
+++ b/dashboards/src/localization/json/localization.xlsx
@@ -301,7 +301,7 @@
     <t xml:space="preserve">Cancel</t>
   </si>
   <si>
-    <t xml:space="preserve">Datepicker::mon</t>
+    <t xml:space="preserve">Datepicker::Mon</t>
   </si>
   <si>
     <t xml:space="preserve">пн</t>
@@ -310,7 +310,7 @@
     <t xml:space="preserve">mon</t>
   </si>
   <si>
-    <t xml:space="preserve">Datepicker::tue</t>
+    <t xml:space="preserve">Datepicker::Tue</t>
   </si>
   <si>
     <t xml:space="preserve">вт</t>
@@ -319,7 +319,7 @@
     <t xml:space="preserve">tue</t>
   </si>
   <si>
-    <t xml:space="preserve">Datepicker::wed</t>
+    <t xml:space="preserve">Datepicker::Wed</t>
   </si>
   <si>
     <t xml:space="preserve">ср</t>
@@ -328,7 +328,7 @@
     <t xml:space="preserve">wed</t>
   </si>
   <si>
-    <t xml:space="preserve">Datepicker::thu</t>
+    <t xml:space="preserve">Datepicker::Thu</t>
   </si>
   <si>
     <t xml:space="preserve">чт</t>
@@ -337,7 +337,7 @@
     <t xml:space="preserve">thu</t>
   </si>
   <si>
-    <t xml:space="preserve">Datepicker::fri</t>
+    <t xml:space="preserve">Datepicker::Fri</t>
   </si>
   <si>
     <t xml:space="preserve">пт</t>
@@ -346,7 +346,7 @@
     <t xml:space="preserve">fri</t>
   </si>
   <si>
-    <t xml:space="preserve">Datepicker::sat</t>
+    <t xml:space="preserve">Datepicker::Sat</t>
   </si>
   <si>
     <t xml:space="preserve">сб</t>
@@ -355,7 +355,7 @@
     <t xml:space="preserve">sat</t>
   </si>
   <si>
-    <t xml:space="preserve">Datepicker::sun</t>
+    <t xml:space="preserve">Datepicker::Sun</t>
   </si>
   <si>
     <t xml:space="preserve">вс</t>
@@ -3792,7 +3792,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/dashboards/src/localization/json/localization.xlsx
+++ b/dashboards/src/localization/json/localization.xlsx
@@ -11,7 +11,7 @@
     <sheet name="localization" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">localization!$A$1:$E$444</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">localization!$A$1:$E$450</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="1203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="1228">
   <si>
     <t xml:space="preserve">ru</t>
   </si>
@@ -2495,12 +2495,124 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">WidgetsGrid::ConfirmCloseWindow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В случае закрытия окна все изменения на данном дашборде будут сброшены. Перейти на другую вкладку?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you close the window, all changes on this dashboard will be reset. Switch to another tab?</t>
+  </si>
+  <si>
     <t xml:space="preserve">WidgetForm::Save</t>
   </si>
   <si>
     <t xml:space="preserve">WidgetForm::Cancel</t>
   </si>
   <si>
+    <t xml:space="preserve">WidgetForm::ChoiceWidgetTooltipForm::Tooltip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подсказка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tooltip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WidgetForm::ChoiceWidgetTooltipForm::AtTitle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В заголовке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WidgetForm::ChoiceWidgetTooltipForm::AtIndicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В показателе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At indicator</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Mono"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">WidgetForm::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Mono"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SimpleWidgetTooltipForm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Mono"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">::Tooltip</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Mono"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">WidgetForm::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Mono"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SimpleWidgetTooltipForm::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Mono"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">TooltipAtTitle</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Подсказка в заголовке</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Mono"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tooltip a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Mono"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">t title</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">DashboardPanel::Dashboards</t>
   </si>
   <si>
@@ -3633,16 +3745,44 @@
   </si>
   <si>
     <t xml:space="preserve">Title not contains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TableWidgetForm::TableTooltipForm::Indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TableWidgetForm::TableTooltipForm::TooltipText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Текст подсказки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TableWidgetForm::TableTooltipForm::AddTooltip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добавить подсказку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add tooltip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TableWidgetForm::TableTooltipForm::AtIndicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TableWidgetForm::TableTooltipForm::AtTitle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TableWidgetForm::TableTooltipForm::Tooltip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3676,6 +3816,11 @@
       <name val="Droid Sans Mono"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Droid Sans Mono"/>
+      <family val="2"/>
     </font>
     <font>
       <i val="true"/>
@@ -3727,7 +3872,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3756,12 +3901,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3785,14 +3942,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G470"/>
+  <dimension ref="A1:G483"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B428" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A30" activeCellId="0" sqref="A30"/>
+      <selection pane="bottomLeft" activeCell="A428" activeCellId="0" sqref="A428"/>
+      <selection pane="bottomRight" activeCell="A457" activeCellId="0" sqref="A457:C457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7426,37 +7583,37 @@
         <v>822</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
         <v>823</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>125</v>
+        <v>824</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>126</v>
+        <v>825</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>826</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>827</v>
+        <v>90</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7466,7 +7623,7 @@
       <c r="B304" s="5" t="s">
         <v>829</v>
       </c>
-      <c r="C304" s="1" t="s">
+      <c r="C304" s="5" t="s">
         <v>830</v>
       </c>
     </row>
@@ -7477,85 +7634,85 @@
       <c r="B305" s="5" t="s">
         <v>832</v>
       </c>
-      <c r="C305" s="1" t="s">
-        <v>349</v>
+      <c r="C305" s="5" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>834</v>
-      </c>
-      <c r="C306" s="1" t="s">
         <v>835</v>
       </c>
+      <c r="C306" s="5" t="s">
+        <v>836</v>
+      </c>
     </row>
     <row r="307" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="1" t="s">
-        <v>836</v>
+      <c r="A307" s="7" t="s">
+        <v>837</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="C307" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="C307" s="5" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="7" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="308" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="1" t="s">
+      <c r="B308" s="5" t="s">
         <v>839</v>
       </c>
-      <c r="B308" s="5" t="s">
+      <c r="C308" s="8" t="s">
         <v>840</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B309" s="5" t="s">
         <v>842</v>
       </c>
-      <c r="B309" s="5" t="s">
+      <c r="C309" s="1" t="s">
         <v>843</v>
-      </c>
-      <c r="C309" s="1" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B310" s="5" t="s">
         <v>845</v>
       </c>
-      <c r="B310" s="5" t="s">
+      <c r="C310" s="1" t="s">
         <v>846</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B311" s="5" t="s">
         <v>848</v>
       </c>
-      <c r="B311" s="5" t="s">
-        <v>849</v>
-      </c>
       <c r="C311" s="1" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="B312" s="5" t="s">
         <v>850</v>
       </c>
-      <c r="B312" s="5" t="s">
+      <c r="C312" s="1" t="s">
         <v>851</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7610,238 +7767,238 @@
         <v>865</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>866</v>
+        <v>343</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B318" s="5" t="s">
         <v>867</v>
       </c>
-      <c r="B318" s="5" t="s">
-        <v>868</v>
-      </c>
       <c r="C318" s="1" t="s">
-        <v>869</v>
+        <v>346</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B319" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="C319" s="1" t="s">
         <v>870</v>
-      </c>
-      <c r="B319" s="5" t="s">
-        <v>871</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B320" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="C320" s="1" t="s">
         <v>873</v>
-      </c>
-      <c r="B320" s="5" t="s">
-        <v>874</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B321" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="C321" s="1" t="s">
         <v>876</v>
-      </c>
-      <c r="B321" s="5" t="s">
-        <v>877</v>
-      </c>
-      <c r="C321" s="1" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="C322" s="1" t="s">
         <v>879</v>
-      </c>
-      <c r="B322" s="5" t="s">
-        <v>880</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B323" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="C323" s="1" t="s">
         <v>882</v>
-      </c>
-      <c r="B323" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B324" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="C324" s="1" t="s">
         <v>885</v>
-      </c>
-      <c r="B324" s="5" t="s">
-        <v>886</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B325" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="C325" s="1" t="s">
         <v>888</v>
-      </c>
-      <c r="B325" s="5" t="s">
-        <v>889</v>
-      </c>
-      <c r="C325" s="1" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="C326" s="1" t="s">
         <v>891</v>
-      </c>
-      <c r="B326" s="5" t="s">
-        <v>892</v>
-      </c>
-      <c r="C326" s="1" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B327" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="C327" s="1" t="s">
         <v>894</v>
-      </c>
-      <c r="B327" s="5" t="s">
-        <v>895</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B328" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="C328" s="1" t="s">
         <v>897</v>
-      </c>
-      <c r="B328" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B329" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="C329" s="1" t="s">
         <v>900</v>
-      </c>
-      <c r="B329" s="5" t="s">
-        <v>901</v>
-      </c>
-      <c r="C329" s="5" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="C330" s="1" t="s">
         <v>903</v>
-      </c>
-      <c r="B330" s="5" t="s">
-        <v>904</v>
-      </c>
-      <c r="C330" s="5" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B331" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="C331" s="1" t="s">
         <v>906</v>
-      </c>
-      <c r="B331" s="5" t="s">
-        <v>907</v>
-      </c>
-      <c r="C331" s="5" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B332" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="C332" s="1" t="s">
         <v>909</v>
-      </c>
-      <c r="B332" s="5" t="s">
-        <v>910</v>
-      </c>
-      <c r="C332" s="1" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B333" s="5" t="s">
+        <v>911</v>
+      </c>
+      <c r="C333" s="1" t="s">
         <v>912</v>
-      </c>
-      <c r="B333" s="5" t="s">
-        <v>913</v>
-      </c>
-      <c r="C333" s="5" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="C334" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="B334" s="5" t="s">
-        <v>916</v>
-      </c>
-      <c r="C334" s="5" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="B335" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="C335" s="5" t="s">
         <v>918</v>
-      </c>
-      <c r="B335" s="5" t="s">
-        <v>919</v>
-      </c>
-      <c r="C335" s="5" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>920</v>
+      </c>
+      <c r="C336" s="5" t="s">
         <v>921</v>
-      </c>
-      <c r="B336" s="5" t="s">
-        <v>922</v>
-      </c>
-      <c r="C336" s="5" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B337" s="5" t="s">
+        <v>923</v>
+      </c>
+      <c r="C337" s="5" t="s">
         <v>924</v>
-      </c>
-      <c r="B337" s="5" t="s">
-        <v>925</v>
-      </c>
-      <c r="C337" s="5" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B338" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="C338" s="1" t="s">
         <v>927</v>
-      </c>
-      <c r="B338" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="C338" s="5" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7871,43 +8028,43 @@
         <v>934</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>829</v>
+        <v>935</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>830</v>
+        <v>936</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>942</v>
+        <v>503</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>943</v>
+        <v>504</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7937,112 +8094,112 @@
         <v>950</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>951</v>
+        <v>845</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>952</v>
+        <v>846</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B348" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="C348" s="5" t="s">
         <v>953</v>
       </c>
-      <c r="B348" s="5" t="s">
+    </row>
+    <row r="349" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="C348" s="5" t="s">
+      <c r="B349" s="5" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="349" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="1" t="s">
+      <c r="C349" s="5" t="s">
         <v>956</v>
       </c>
-      <c r="B349" s="5" t="s">
+    </row>
+    <row r="350" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="C349" s="5" t="s">
+      <c r="B350" s="5" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="350" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="1" t="s">
+      <c r="C350" s="5" t="s">
         <v>959</v>
       </c>
-      <c r="B350" s="5" t="s">
-        <v>957</v>
-      </c>
-      <c r="C350" s="5" t="s">
+    </row>
+    <row r="351" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="1" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="351" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="1" t="s">
+      <c r="B351" s="5" t="s">
         <v>961</v>
       </c>
-      <c r="B351" s="5" t="s">
+      <c r="C351" s="5" t="s">
         <v>962</v>
       </c>
-      <c r="C351" s="5" t="s">
+    </row>
+    <row r="352" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="1" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="352" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="1" t="s">
+      <c r="B352" s="5" t="s">
         <v>964</v>
       </c>
-      <c r="B352" s="5" t="s">
+      <c r="C352" s="5" t="s">
         <v>965</v>
-      </c>
-      <c r="C352" s="5" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B353" s="5" t="s">
         <v>967</v>
       </c>
-      <c r="B353" s="5" t="s">
-        <v>951</v>
-      </c>
       <c r="C353" s="5" t="s">
-        <v>952</v>
+        <v>968</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C354" s="5" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="355" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C355" s="5" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="B356" s="5" t="s">
         <v>973</v>
-      </c>
-    </row>
-    <row r="356" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="1" t="s">
-        <v>974</v>
-      </c>
-      <c r="B356" s="5" t="s">
-        <v>975</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
         <v>977</v>
       </c>
@@ -8053,7 +8210,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
         <v>980</v>
       </c>
@@ -8069,32 +8226,32 @@
         <v>983</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>984</v>
-      </c>
-      <c r="C359" s="1" t="s">
-        <v>985</v>
+        <v>967</v>
+      </c>
+      <c r="C359" s="5" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B360" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="C360" s="5" t="s">
         <v>986</v>
-      </c>
-      <c r="B360" s="5" t="s">
-        <v>987</v>
-      </c>
-      <c r="C360" s="1" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="B361" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="C361" s="5" t="s">
         <v>989</v>
-      </c>
-      <c r="B361" s="5" t="s">
-        <v>972</v>
-      </c>
-      <c r="C361" s="1" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8104,195 +8261,195 @@
       <c r="B362" s="5" t="s">
         <v>991</v>
       </c>
-      <c r="C362" s="1" t="s">
-        <v>340</v>
+      <c r="C362" s="5" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>849</v>
-      </c>
-      <c r="C363" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="364" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>994</v>
+      </c>
+      <c r="C363" s="5" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>851</v>
-      </c>
-      <c r="C364" s="1" t="s">
-        <v>346</v>
+        <v>997</v>
+      </c>
+      <c r="C364" s="5" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
-        <v>994</v>
+        <v>999</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>349</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>997</v>
+        <v>1003</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>352</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
-        <v>998</v>
+        <v>1005</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>999</v>
+        <v>988</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>1000</v>
+        <v>989</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>1003</v>
+        <v>340</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B369" s="7" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C369" s="8" t="s">
-        <v>1006</v>
+        <v>1008</v>
+      </c>
+      <c r="B369" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>1008</v>
+        <v>867</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>1009</v>
+        <v>346</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="B371" s="7" t="s">
-        <v>871</v>
-      </c>
-      <c r="C371" s="8" t="s">
-        <v>872</v>
+      <c r="B371" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B372" s="7" t="s">
-        <v>874</v>
-      </c>
-      <c r="C372" s="8" t="s">
-        <v>875</v>
+        <v>1012</v>
+      </c>
+      <c r="B372" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>342</v>
+        <v>1015</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>343</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>345</v>
+        <v>1018</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>346</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B375" s="5" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C375" s="1" t="s">
-        <v>1016</v>
+        <v>1020</v>
+      </c>
+      <c r="B375" s="9" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C375" s="10" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>1019</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B377" s="5" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C377" s="1" t="s">
-        <v>1022</v>
+        <v>1026</v>
+      </c>
+      <c r="B377" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="C377" s="10" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B378" s="5" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C378" s="1" t="s">
-        <v>1025</v>
+        <v>1027</v>
+      </c>
+      <c r="B378" s="9" t="s">
+        <v>890</v>
+      </c>
+      <c r="C378" s="10" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>1027</v>
+        <v>342</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>1028</v>
+        <v>343</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8300,10 +8457,10 @@
         <v>1029</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>90</v>
+        <v>345</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>91</v>
+        <v>346</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8311,285 +8468,285 @@
         <v>1030</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>21</v>
+        <v>1031</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>22</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>1043</v>
+        <v>90</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>1044</v>
+        <v>91</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>1046</v>
+        <v>21</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1047</v>
+        <v>22</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B388" s="5" t="s">
         <v>1048</v>
       </c>
-      <c r="B388" s="5" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C388" s="5" t="s">
-        <v>1050</v>
+      <c r="C388" s="1" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B389" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C389" s="1" t="s">
         <v>1051</v>
-      </c>
-      <c r="B389" s="5" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C389" s="5" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B390" s="5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C390" s="1" t="s">
         <v>1054</v>
-      </c>
-      <c r="B390" s="5" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C390" s="5" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B391" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C391" s="1" t="s">
         <v>1057</v>
-      </c>
-      <c r="B391" s="5" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C391" s="5" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B392" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C392" s="1" t="s">
         <v>1060</v>
-      </c>
-      <c r="B392" s="5" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C392" s="5" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B393" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C393" s="1" t="s">
         <v>1063</v>
-      </c>
-      <c r="B393" s="5" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C393" s="5" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B394" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C394" s="5" t="s">
         <v>1066</v>
-      </c>
-      <c r="B394" s="5" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C394" s="5" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B395" s="5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C395" s="5" t="s">
         <v>1069</v>
-      </c>
-      <c r="B395" s="5" t="s">
-        <v>738</v>
-      </c>
-      <c r="C395" s="5" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B396" s="5" t="s">
         <v>1071</v>
       </c>
-      <c r="B396" s="5" t="s">
+      <c r="C396" s="5" t="s">
         <v>1072</v>
-      </c>
-      <c r="C396" s="5" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B397" s="5" t="s">
         <v>1074</v>
       </c>
-      <c r="B397" s="5" t="s">
+      <c r="C397" s="5" t="s">
         <v>1075</v>
-      </c>
-      <c r="C397" s="5" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B398" s="5" t="s">
         <v>1077</v>
       </c>
-      <c r="B398" s="5" t="s">
+      <c r="C398" s="5" t="s">
         <v>1078</v>
-      </c>
-      <c r="C398" s="5" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B399" s="5" t="s">
         <v>1080</v>
       </c>
-      <c r="B399" s="5" t="s">
+      <c r="C399" s="5" t="s">
         <v>1081</v>
-      </c>
-      <c r="C399" s="5" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B400" s="5" t="s">
         <v>1083</v>
       </c>
-      <c r="B400" s="5" t="s">
+      <c r="C400" s="5" t="s">
         <v>1084</v>
-      </c>
-      <c r="C400" s="5" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B401" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="C401" s="5" t="s">
         <v>1086</v>
-      </c>
-      <c r="B401" s="5" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C401" s="5" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B402" s="5" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C402" s="5" t="s">
         <v>1089</v>
-      </c>
-      <c r="B402" s="5" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C402" s="5" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B403" s="5" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C403" s="5" t="s">
         <v>1092</v>
       </c>
-      <c r="B403" s="5" t="s">
+    </row>
+    <row r="404" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="C403" s="5" t="s">
+      <c r="B404" s="5" t="s">
         <v>1094</v>
       </c>
-    </row>
-    <row r="404" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="1" t="s">
+      <c r="C404" s="5" t="s">
         <v>1095</v>
-      </c>
-      <c r="B404" s="5" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C404" s="5" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B405" s="5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C405" s="5" t="s">
         <v>1098</v>
-      </c>
-      <c r="B405" s="5" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C405" s="5" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B406" s="5" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C406" s="5" t="s">
         <v>1101</v>
-      </c>
-      <c r="B406" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C406" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8597,172 +8754,172 @@
         <v>1102</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>51</v>
+        <v>1103</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>52</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>48</v>
+        <v>1106</v>
       </c>
       <c r="C408" s="5" t="s">
-        <v>49</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>1105</v>
+        <v>1109</v>
       </c>
       <c r="C409" s="5" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="410" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="s">
-        <v>1107</v>
+        <v>1111</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B411" s="4" t="s">
-        <v>1111</v>
+        <v>1114</v>
+      </c>
+      <c r="B411" s="5" t="s">
+        <v>1115</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D411" s="4" t="s">
-        <v>1111</v>
-      </c>
-      <c r="E411" s="4" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F411" s="4"/>
-      <c r="G411" s="4"/>
+        <v>1116</v>
+      </c>
     </row>
     <row r="412" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="s">
-        <v>1112</v>
+        <v>1117</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>1113</v>
+        <v>45</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>1114</v>
+        <v>46</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>1116</v>
+        <v>51</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>1117</v>
+        <v>52</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>1119</v>
+        <v>48</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>1120</v>
+        <v>49</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B415" s="5" t="s">
         <v>1121</v>
       </c>
-      <c r="B415" s="5" t="s">
+      <c r="C415" s="5" t="s">
         <v>1122</v>
       </c>
-      <c r="C415" s="5" t="s">
+    </row>
+    <row r="416" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="1" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="416" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="1" t="s">
+      <c r="B416" s="5" t="s">
         <v>1124</v>
       </c>
-      <c r="B416" s="5" t="s">
+      <c r="C416" s="5" t="s">
         <v>1125</v>
-      </c>
-      <c r="C416" s="5" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B417" s="4" t="s">
         <v>1127</v>
       </c>
-      <c r="B417" s="5" t="s">
-        <v>1128</v>
-      </c>
       <c r="C417" s="5" t="s">
-        <v>1129</v>
-      </c>
+        <v>1127</v>
+      </c>
+      <c r="D417" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E417" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F417" s="4"/>
+      <c r="G417" s="4"/>
     </row>
     <row r="418" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B418" s="5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C418" s="5" t="s">
         <v>1130</v>
-      </c>
-      <c r="B418" s="5" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C418" s="5" t="s">
-        <v>1132</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B419" s="5" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C419" s="5" t="s">
         <v>1133</v>
-      </c>
-      <c r="B419" s="5" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C419" s="5" t="s">
-        <v>1135</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B420" s="5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C420" s="5" t="s">
         <v>1136</v>
-      </c>
-      <c r="B420" s="5" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C420" s="5" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B421" s="5" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C421" s="5" t="s">
         <v>1139</v>
-      </c>
-      <c r="B421" s="5" t="s">
-        <v>871</v>
-      </c>
-      <c r="C421" s="5" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8795,128 +8952,128 @@
         <v>1147</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>1000</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>1155</v>
+        <v>887</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>1156</v>
+        <v>888</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B428" s="5" t="s">
         <v>1157</v>
       </c>
-      <c r="B428" s="5" t="s">
-        <v>1005</v>
-      </c>
       <c r="C428" s="5" t="s">
-        <v>1006</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>1009</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>1162</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C431" s="4" t="s">
         <v>1165</v>
+      </c>
+      <c r="C431" s="5" t="s">
+        <v>1166</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>874</v>
+        <v>1171</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>875</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>1171</v>
+        <v>1021</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>1172</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>1175</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8937,7 +9094,7 @@
       <c r="B437" s="5" t="s">
         <v>1180</v>
       </c>
-      <c r="C437" s="5" t="s">
+      <c r="C437" s="4" t="s">
         <v>1181</v>
       </c>
     </row>
@@ -8957,151 +9114,312 @@
         <v>1185</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>1186</v>
+        <v>890</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>1187</v>
+        <v>891</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B440" s="5" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C440" s="5" t="s">
         <v>1188</v>
-      </c>
-      <c r="B440" s="5" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C440" s="5" t="s">
-        <v>1190</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B441" s="5" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C441" s="5" t="s">
         <v>1191</v>
-      </c>
-      <c r="B441" s="5" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C441" s="5" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B442" s="5" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C442" s="5" t="s">
         <v>1194</v>
-      </c>
-      <c r="B442" s="5" t="s">
-        <v>1195</v>
-      </c>
-      <c r="C442" s="5" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B443" s="5" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C443" s="5" t="s">
         <v>1197</v>
-      </c>
-      <c r="B443" s="5" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C443" s="5" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B444" s="5" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C444" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="B444" s="5" t="s">
+    </row>
+    <row r="445" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="C444" s="5" t="s">
+      <c r="B445" s="5" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B445" s="5"/>
-      <c r="C445" s="8"/>
-    </row>
-    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B446" s="5"/>
-    </row>
-    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B447" s="5"/>
-    </row>
-    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B448" s="5"/>
-    </row>
-    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B449" s="5"/>
-    </row>
-    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B450" s="5"/>
-    </row>
-    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B451" s="5"/>
-    </row>
-    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B452" s="5"/>
-    </row>
-    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B453" s="5"/>
-    </row>
-    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B454" s="5"/>
-    </row>
-    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B455" s="5"/>
-    </row>
-    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B456" s="5"/>
+      <c r="C445" s="5" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B446" s="5" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C446" s="5" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B447" s="5" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C447" s="5" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B448" s="5" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C448" s="5" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B449" s="5" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C449" s="5" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B450" s="5" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C450" s="5" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B451" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B452" s="5" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B453" s="5" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B454" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B455" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B456" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>830</v>
+      </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B457" s="5"/>
+      <c r="B457" s="11"/>
+      <c r="C457" s="11"/>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B458" s="5"/>
+      <c r="C458" s="5"/>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B459" s="5"/>
+      <c r="C459" s="5"/>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B460" s="5"/>
+      <c r="C460" s="5"/>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B461" s="5"/>
+      <c r="C461" s="5"/>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B462" s="5"/>
+      <c r="C462" s="5"/>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B463" s="5"/>
+      <c r="C463" s="5"/>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B464" s="5"/>
+      <c r="C464" s="5"/>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B465" s="5"/>
+      <c r="C465" s="5"/>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B466" s="5"/>
+      <c r="C466" s="5"/>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B467" s="5"/>
+      <c r="C467" s="5"/>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B468" s="5"/>
+      <c r="C468" s="5"/>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B469" s="5"/>
+      <c r="C469" s="5"/>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B470" s="5"/>
+      <c r="C470" s="5"/>
+    </row>
+    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B471" s="5"/>
+      <c r="C471" s="5"/>
+    </row>
+    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B472" s="5"/>
+      <c r="C472" s="5"/>
+    </row>
+    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B473" s="5"/>
+      <c r="C473" s="5"/>
+    </row>
+    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B474" s="5"/>
+      <c r="C474" s="5"/>
+    </row>
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B475" s="5"/>
+      <c r="C475" s="5"/>
+    </row>
+    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B476" s="5"/>
+      <c r="C476" s="5"/>
+    </row>
+    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B477" s="5"/>
+      <c r="C477" s="5"/>
+    </row>
+    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B478" s="5"/>
+      <c r="C478" s="5"/>
+    </row>
+    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B479" s="5"/>
+      <c r="C479" s="5"/>
+    </row>
+    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B480" s="5"/>
+      <c r="C480" s="5"/>
+    </row>
+    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B481" s="5"/>
+      <c r="C481" s="5"/>
+    </row>
+    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B482" s="5"/>
+      <c r="C482" s="5"/>
+    </row>
+    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B483" s="5"/>
+      <c r="C483" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E444"/>
+  <autoFilter ref="A1:E450"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>

--- a/dashboards/src/localization/json/localization.xlsx
+++ b/dashboards/src/localization/json/localization.xlsx
@@ -11,7 +11,7 @@
     <sheet name="localization" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">localization!$A$1:$E$450</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">localization!$A$1:$E$451</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="1228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="1231">
   <si>
     <t xml:space="preserve">ru</t>
   </si>
@@ -2276,6 +2276,15 @@
   </si>
   <si>
     <t xml:space="preserve">Select a value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SourceFieldset::SaveButton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добавить к сохранённым фильтрам</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add to saved filters</t>
   </si>
   <si>
     <t xml:space="preserve">TextAlignControl::AlignLeft</t>
@@ -2537,80 +2546,16 @@
     <t xml:space="preserve">At indicator</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Mono"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">WidgetForm::</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Mono"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">SimpleWidgetTooltipForm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Mono"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">::Tooltip</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Mono"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">WidgetForm::</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Mono"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">SimpleWidgetTooltipForm::</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Mono"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">TooltipAtTitle</t>
-    </r>
+    <t xml:space="preserve">WidgetForm::SimpleWidgetTooltipForm::Tooltip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WidgetForm::SimpleWidgetTooltipForm::TooltipAtTitle</t>
   </si>
   <si>
     <t xml:space="preserve">Подсказка в заголовке</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Mono"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tooltip a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Mono"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">t title</t>
-    </r>
+    <t xml:space="preserve">Tooltip at title</t>
   </si>
   <si>
     <t xml:space="preserve">DashboardPanel::Dashboards</t>
@@ -3782,7 +3727,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3816,11 +3761,6 @@
       <name val="Droid Sans Mono"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Droid Sans Mono"/>
-      <family val="2"/>
     </font>
     <font>
       <i val="true"/>
@@ -3872,7 +3812,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3901,19 +3841,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3942,14 +3874,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G483"/>
+  <dimension ref="A1:G484"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B428" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B240" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A428" activeCellId="0" sqref="A428"/>
-      <selection pane="bottomRight" activeCell="A457" activeCellId="0" sqref="A457:C457"/>
+      <selection pane="bottomLeft" activeCell="A240" activeCellId="0" sqref="A240"/>
+      <selection pane="bottomRight" activeCell="C276" activeCellId="0" sqref="C276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7295,7 +7227,7 @@
       </c>
     </row>
     <row r="275" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="1" t="s">
+      <c r="A275" s="5" t="s">
         <v>751</v>
       </c>
       <c r="B275" s="5" t="s">
@@ -7346,18 +7278,18 @@
         <v>764</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>483</v>
+        <v>765</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>766</v>
-      </c>
-      <c r="C280" s="5" t="s">
         <v>767</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7383,7 +7315,7 @@
       </c>
     </row>
     <row r="283" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="5" t="s">
+      <c r="A283" s="1" t="s">
         <v>774</v>
       </c>
       <c r="B283" s="5" t="s">
@@ -7394,7 +7326,7 @@
       </c>
     </row>
     <row r="284" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="1" t="s">
+      <c r="A284" s="5" t="s">
         <v>777</v>
       </c>
       <c r="B284" s="5" t="s">
@@ -7497,21 +7429,21 @@
         <v>804</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>512</v>
+        <v>805</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>513</v>
+        <v>806</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>806</v>
+        <v>512</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>807</v>
+        <v>513</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7519,35 +7451,35 @@
         <v>808</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>550</v>
+        <v>809</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>551</v>
+        <v>810</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B296" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="B297" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="C296" s="5" t="s">
+      <c r="C297" s="5" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="B297" s="5" t="s">
-        <v>811</v>
-      </c>
-      <c r="C297" s="5" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="298" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
         <v>813</v>
       </c>
@@ -7557,22 +7489,22 @@
       <c r="C298" s="5" t="s">
         <v>815</v>
       </c>
-      <c r="D298" s="1" t="s">
+    </row>
+    <row r="299" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="1" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="299" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="1" t="s">
+      <c r="B299" s="5" t="s">
         <v>817</v>
       </c>
-      <c r="B299" s="5" t="s">
+      <c r="C299" s="5" t="s">
         <v>818</v>
       </c>
-      <c r="C299" s="5" t="s">
+      <c r="D299" s="1" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
         <v>820</v>
       </c>
@@ -7583,7 +7515,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
         <v>823</v>
       </c>
@@ -7594,37 +7526,37 @@
         <v>825</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
         <v>826</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>125</v>
+        <v>827</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>126</v>
+        <v>828</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>829</v>
+        <v>90</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>830</v>
+        <v>91</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7650,25 +7582,25 @@
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="7" t="s">
+      <c r="A307" s="1" t="s">
         <v>837</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>829</v>
+        <v>838</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="7" t="s">
-        <v>838</v>
+      <c r="A308" s="1" t="s">
+        <v>840</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>839</v>
-      </c>
-      <c r="C308" s="8" t="s">
-        <v>840</v>
+        <v>832</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7678,7 +7610,7 @@
       <c r="B309" s="5" t="s">
         <v>842</v>
       </c>
-      <c r="C309" s="1" t="s">
+      <c r="C309" s="5" t="s">
         <v>843</v>
       </c>
     </row>
@@ -7701,18 +7633,18 @@
         <v>848</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>349</v>
+        <v>849</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>851</v>
+        <v>349</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7767,29 +7699,29 @@
         <v>865</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>343</v>
+        <v>866</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>870</v>
+        <v>346</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7964,7 +7896,7 @@
       <c r="B335" s="5" t="s">
         <v>917</v>
       </c>
-      <c r="C335" s="5" t="s">
+      <c r="C335" s="1" t="s">
         <v>918</v>
       </c>
     </row>
@@ -7997,7 +7929,7 @@
       <c r="B338" s="5" t="s">
         <v>926</v>
       </c>
-      <c r="C338" s="1" t="s">
+      <c r="C338" s="5" t="s">
         <v>927</v>
       </c>
     </row>
@@ -8008,7 +7940,7 @@
       <c r="B339" s="5" t="s">
         <v>929</v>
       </c>
-      <c r="C339" s="5" t="s">
+      <c r="C339" s="1" t="s">
         <v>930</v>
       </c>
     </row>
@@ -8061,21 +7993,21 @@
         <v>943</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>503</v>
+        <v>944</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>504</v>
+        <v>945</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>945</v>
+        <v>503</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>946</v>
+        <v>504</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8094,21 +8026,21 @@
         <v>950</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>845</v>
+        <v>951</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>846</v>
+        <v>952</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>952</v>
+        <v>848</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>953</v>
+        <v>849</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8177,7 +8109,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
         <v>972</v>
       </c>
@@ -8193,18 +8125,18 @@
         <v>975</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>979</v>
@@ -8221,26 +8153,26 @@
         <v>982</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
         <v>983</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>967</v>
+        <v>984</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>968</v>
+        <v>985</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>985</v>
+        <v>970</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>986</v>
+        <v>971</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8276,7 +8208,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
         <v>996</v>
       </c>
@@ -8287,14 +8219,14 @@
         <v>998</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
         <v>999</v>
       </c>
       <c r="B365" s="5" t="s">
         <v>1000</v>
       </c>
-      <c r="C365" s="1" t="s">
+      <c r="C365" s="5" t="s">
         <v>1001</v>
       </c>
     </row>
@@ -8314,76 +8246,76 @@
         <v>1005</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>988</v>
+        <v>1006</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>989</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>1007</v>
+        <v>991</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>340</v>
+        <v>992</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>865</v>
+        <v>1010</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>1011</v>
+        <v>870</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>1016</v>
+        <v>352</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8401,10 +8333,10 @@
       <c r="A375" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="B375" s="9" t="s">
+      <c r="B375" s="5" t="s">
         <v>1021</v>
       </c>
-      <c r="C375" s="10" t="s">
+      <c r="C375" s="1" t="s">
         <v>1022</v>
       </c>
     </row>
@@ -8412,10 +8344,10 @@
       <c r="A376" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="B376" s="5" t="s">
+      <c r="B376" s="7" t="s">
         <v>1024</v>
       </c>
-      <c r="C376" s="1" t="s">
+      <c r="C376" s="8" t="s">
         <v>1025</v>
       </c>
     </row>
@@ -8423,55 +8355,55 @@
       <c r="A377" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="B377" s="9" t="s">
-        <v>887</v>
-      </c>
-      <c r="C377" s="10" t="s">
-        <v>888</v>
+      <c r="B377" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B378" s="9" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B378" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="C378" s="10" t="s">
+      <c r="C378" s="8" t="s">
         <v>891</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B379" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="C379" s="1" t="s">
-        <v>343</v>
+        <v>1030</v>
+      </c>
+      <c r="B379" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="C379" s="8" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>1031</v>
+        <v>345</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>1032</v>
+        <v>346</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8523,40 +8455,40 @@
         <v>1045</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>90</v>
+        <v>1046</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>91</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>1048</v>
+        <v>21</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>1048</v>
+        <v>22</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>1051</v>
@@ -8613,7 +8545,7 @@
       <c r="B394" s="5" t="s">
         <v>1065</v>
       </c>
-      <c r="C394" s="5" t="s">
+      <c r="C394" s="1" t="s">
         <v>1066</v>
       </c>
     </row>
@@ -8688,18 +8620,18 @@
         <v>1085</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>738</v>
+        <v>1086</v>
       </c>
       <c r="C401" s="5" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>1088</v>
+        <v>738</v>
       </c>
       <c r="C402" s="5" t="s">
         <v>1089</v>
@@ -8782,7 +8714,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="410" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="s">
         <v>1111</v>
       </c>
@@ -8793,7 +8725,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="s">
         <v>1114</v>
       </c>
@@ -8809,46 +8741,46 @@
         <v>1117</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>45</v>
+        <v>1118</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>46</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>1121</v>
+        <v>48</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="416" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="s">
         <v>1123</v>
       </c>
@@ -8859,35 +8791,35 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="B417" s="4" t="s">
+      <c r="B417" s="5" t="s">
         <v>1127</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D417" s="4" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E417" s="4" t="s">
-        <v>1127</v>
-      </c>
-      <c r="F417" s="4"/>
-      <c r="G417" s="4"/>
+        <v>1128</v>
+      </c>
     </row>
     <row r="418" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B418" s="5" t="s">
         <v>1129</v>
+      </c>
+      <c r="B418" s="4" t="s">
+        <v>1130</v>
       </c>
       <c r="C418" s="5" t="s">
         <v>1130</v>
       </c>
+      <c r="D418" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E418" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F418" s="4"/>
+      <c r="G418" s="4"/>
     </row>
     <row r="419" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
@@ -8982,21 +8914,21 @@
         <v>1155</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>887</v>
+        <v>1156</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>888</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>1157</v>
+        <v>890</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>1158</v>
+        <v>891</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9018,18 +8950,18 @@
         <v>1163</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>1016</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>1166</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9059,18 +8991,18 @@
         <v>1173</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>1021</v>
+        <v>1174</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>1022</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>1175</v>
+        <v>1024</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>1025</v>
@@ -9078,13 +9010,13 @@
     </row>
     <row r="436" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>1178</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9094,7 +9026,7 @@
       <c r="B437" s="5" t="s">
         <v>1180</v>
       </c>
-      <c r="C437" s="4" t="s">
+      <c r="C437" s="5" t="s">
         <v>1181</v>
       </c>
     </row>
@@ -9105,7 +9037,7 @@
       <c r="B438" s="5" t="s">
         <v>1183</v>
       </c>
-      <c r="C438" s="5" t="s">
+      <c r="C438" s="4" t="s">
         <v>1184</v>
       </c>
     </row>
@@ -9114,21 +9046,21 @@
         <v>1185</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>890</v>
+        <v>1186</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>891</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>1187</v>
+        <v>893</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>1188</v>
+        <v>894</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9246,32 +9178,32 @@
         <v>1219</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C451" s="1" t="s">
-        <v>300</v>
+        <v>1220</v>
+      </c>
+      <c r="C451" s="5" t="s">
+        <v>1221</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>1221</v>
+        <v>299</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>528</v>
+        <v>300</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>1224</v>
+        <v>528</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9279,41 +9211,48 @@
         <v>1225</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>835</v>
+        <v>1226</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>836</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B457" s="11"/>
-      <c r="C457" s="11"/>
+        <v>836</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B457" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>833</v>
+      </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B458" s="5"/>
-      <c r="C458" s="5"/>
+      <c r="B458" s="9"/>
+      <c r="C458" s="9"/>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B459" s="5"/>
@@ -9415,8 +9354,12 @@
       <c r="B483" s="5"/>
       <c r="C483" s="5"/>
     </row>
+    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B484" s="5"/>
+      <c r="C484" s="5"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E450"/>
+  <autoFilter ref="A1:E451"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/dashboards/src/localization/json/localization.xlsx
+++ b/dashboards/src/localization/json/localization.xlsx
@@ -11,7 +11,7 @@
     <sheet name="localization" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">localization!$A$1:$E$451</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">localization!$A$1:$E$453</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="1231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="1237">
   <si>
     <t xml:space="preserve">ru</t>
   </si>
@@ -254,6 +254,24 @@
   </si>
   <si>
     <t xml:space="preserve">Shared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DashboardHeader::CollapseTopPanel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Свернуть верхнюю панель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collapse the top panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DashboardHeader::ExpandTopPanel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Развернуть верхнюю панель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expand the top panel</t>
   </si>
   <si>
     <t xml:space="preserve">ExportByEmailButton::SendToEmail</t>
@@ -3874,14 +3892,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G484"/>
+  <dimension ref="A1:G486"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B240" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A240" activeCellId="0" sqref="A240"/>
-      <selection pane="bottomRight" activeCell="C276" activeCellId="0" sqref="C276"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4381,36 +4399,36 @@
         <v>113</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -4433,36 +4451,36 @@
         <v>123</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -4592,40 +4610,40 @@
         <v>158</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>158</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
     </row>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C54" s="5" t="s">
         <v>161</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
+      <c r="D55" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
@@ -4634,7 +4652,7 @@
       <c r="B56" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="5" t="s">
         <v>167</v>
       </c>
       <c r="D56" s="4"/>
@@ -4658,48 +4676,48 @@
         <v>171</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>5</v>
+        <v>172</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>6</v>
+        <v>173</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>177</v>
+        <v>5</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="3" t="s">
         <v>180</v>
       </c>
       <c r="D61" s="4"/>
@@ -4712,17 +4730,17 @@
       <c r="B62" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="3" t="s">
         <v>183</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="5" t="s">
         <v>185</v>
       </c>
       <c r="C63" s="4" t="s">
@@ -4736,123 +4754,123 @@
         <v>187</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>179</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>193</v>
+      <c r="A67" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="6" t="s">
-        <v>195</v>
+      <c r="A68" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>90</v>
+        <v>198</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>91</v>
+        <v>200</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>199</v>
+        <v>96</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>200</v>
+        <v>97</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
     </row>
-    <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>203</v>
+        <v>67</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
     </row>
-    <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="4" t="s">
         <v>205</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -4861,7 +4879,7 @@
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
     </row>
-    <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
         <v>207</v>
       </c>
@@ -4874,7 +4892,7 @@
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
     </row>
-    <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
         <v>210</v>
       </c>
@@ -4891,7 +4909,7 @@
       <c r="A76" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="5" t="s">
         <v>214</v>
       </c>
       <c r="C76" s="4" t="s">
@@ -4901,7 +4919,7 @@
       <c r="E76" s="4"/>
     </row>
     <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="6" t="s">
         <v>216</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -4914,10 +4932,10 @@
       <c r="E77" s="4"/>
     </row>
     <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="4" t="s">
         <v>220</v>
       </c>
       <c r="C78" s="4" t="s">
@@ -4930,7 +4948,7 @@
       <c r="A79" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="5" t="s">
         <v>223</v>
       </c>
       <c r="C79" s="4" t="s">
@@ -4943,7 +4961,7 @@
       <c r="A80" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="5" t="s">
         <v>226</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -4978,7 +4996,7 @@
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
     </row>
-    <row r="83" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
         <v>234</v>
       </c>
@@ -4995,34 +5013,34 @@
       <c r="A84" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>193</v>
+      <c r="B84" s="4" t="s">
+        <v>238</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
     </row>
-    <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B85" s="5" t="s">
         <v>240</v>
       </c>
+      <c r="B85" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="C85" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
     </row>
     <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B86" s="4" t="s">
         <v>243</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>244</v>
@@ -5034,7 +5052,7 @@
       <c r="A87" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="5" t="s">
         <v>246</v>
       </c>
       <c r="C87" s="4" t="s">
@@ -5047,7 +5065,7 @@
       <c r="A88" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="4" t="s">
         <v>249</v>
       </c>
       <c r="C88" s="4" t="s">
@@ -5069,11 +5087,11 @@
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
     </row>
-    <row r="90" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="5" t="s">
         <v>255</v>
       </c>
       <c r="C90" s="4" t="s">
@@ -5082,7 +5100,7 @@
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
     </row>
-    <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
         <v>257</v>
       </c>
@@ -5108,7 +5126,7 @@
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
     </row>
-    <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
         <v>263</v>
       </c>
@@ -5121,7 +5139,7 @@
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
     </row>
-    <row r="94" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
         <v>266</v>
       </c>
@@ -5165,62 +5183,62 @@
         <v>275</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>66</v>
+        <v>276</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>67</v>
+        <v>277</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
     </row>
     <row r="98" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
     </row>
     <row r="99" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
     </row>
     <row r="100" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
     </row>
     <row r="101" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>284</v>
+        <v>93</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>285</v>
+        <v>94</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -5238,7 +5256,7 @@
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
     </row>
-    <row r="103" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="s">
         <v>289</v>
       </c>
@@ -5264,7 +5282,7 @@
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
     </row>
-    <row r="105" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="s">
         <v>295</v>
       </c>
@@ -5334,36 +5352,36 @@
         <v>310</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
     </row>
     <row r="111" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
     </row>
     <row r="112" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -5399,46 +5417,46 @@
         <v>323</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
     </row>
     <row r="116" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>5</v>
+        <v>327</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
     </row>
     <row r="117" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
     </row>
     <row r="118" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>330</v>
+        <v>5</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>331</v>
@@ -5541,7 +5559,7 @@
       <c r="A126" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="B126" s="4" t="s">
         <v>354</v>
       </c>
       <c r="C126" s="4" t="s">
@@ -5567,69 +5585,69 @@
       <c r="A128" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B128" s="5" t="s">
         <v>360</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>278</v>
+        <v>361</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
     </row>
     <row r="129" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
     </row>
     <row r="130" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>185</v>
+        <v>365</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>366</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>186</v>
+        <v>284</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
     </row>
     <row r="131" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="6" t="s">
-        <v>365</v>
+      <c r="A131" s="3" t="s">
+        <v>367</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
     </row>
-    <row r="132" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>370</v>
+        <v>192</v>
       </c>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
     </row>
     <row r="133" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="6" t="s">
         <v>371</v>
       </c>
       <c r="B133" s="4" t="s">
@@ -5654,7 +5672,7 @@
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
     </row>
-    <row r="135" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="3" t="s">
         <v>377</v>
       </c>
@@ -5667,7 +5685,7 @@
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
     </row>
-    <row r="136" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="3" t="s">
         <v>380</v>
       </c>
@@ -5680,7 +5698,7 @@
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
     </row>
-    <row r="137" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="3" t="s">
         <v>383</v>
       </c>
@@ -5720,10 +5738,10 @@
       <c r="E139" s="4"/>
     </row>
     <row r="140" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="6" t="s">
+      <c r="A140" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B140" s="4" t="s">
         <v>393</v>
       </c>
       <c r="C140" s="4" t="s">
@@ -5733,40 +5751,40 @@
       <c r="E140" s="4"/>
     </row>
     <row r="141" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="6" t="s">
+      <c r="A141" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="B141" s="5" t="s">
-        <v>66</v>
+      <c r="B141" s="4" t="s">
+        <v>396</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>67</v>
+        <v>397</v>
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
     </row>
     <row r="142" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>397</v>
+      <c r="A142" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>399</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
     </row>
     <row r="143" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>400</v>
+      <c r="A143" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>401</v>
+        <v>67</v>
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
@@ -5785,7 +5803,7 @@
       <c r="E144" s="4"/>
     </row>
     <row r="145" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="6" t="s">
+      <c r="A145" s="3" t="s">
         <v>405</v>
       </c>
       <c r="B145" s="4" t="s">
@@ -5811,7 +5829,7 @@
       <c r="E146" s="4"/>
     </row>
     <row r="147" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="6" t="s">
         <v>411</v>
       </c>
       <c r="B147" s="4" t="s">
@@ -5850,10 +5868,10 @@
       <c r="E149" s="4"/>
     </row>
     <row r="150" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="6" t="s">
+      <c r="A150" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B150" s="4" t="s">
         <v>421</v>
       </c>
       <c r="C150" s="4" t="s">
@@ -5863,58 +5881,62 @@
       <c r="E150" s="4"/>
     </row>
     <row r="151" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="6" t="s">
+      <c r="A151" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="B151" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>300</v>
-      </c>
+      <c r="B151" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
     </row>
     <row r="152" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>426</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
     </row>
     <row r="153" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>6</v>
+        <v>305</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>432</v>
+        <v>5</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>433</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5950,7 +5972,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="s">
         <v>443</v>
       </c>
@@ -5961,7 +5983,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="s">
         <v>446</v>
       </c>
@@ -5972,7 +5994,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="s">
         <v>449</v>
       </c>
@@ -5983,48 +6005,48 @@
         <v>451</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="s">
         <v>452</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>45</v>
+        <v>453</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>46</v>
+        <v>454</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>51</v>
+        <v>456</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>52</v>
+        <v>457</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>455</v>
+        <v>45</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>456</v>
+        <v>46</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>458</v>
+        <v>51</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>459</v>
+        <v>52</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6236,7 +6258,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="s">
         <v>517</v>
       </c>
@@ -6258,7 +6280,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="6" t="s">
         <v>523</v>
       </c>
@@ -6318,54 +6340,54 @@
         <v>538</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>425</v>
+        <v>539</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>426</v>
+        <v>540</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="6" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="6" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>60</v>
+        <v>431</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>61</v>
+        <v>432</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="6" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="6" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>547</v>
+        <v>60</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>548</v>
+        <v>61</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6379,7 +6401,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="s">
         <v>552</v>
       </c>
@@ -6390,7 +6412,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="6" t="s">
         <v>555</v>
       </c>
@@ -6401,7 +6423,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="6" t="s">
         <v>558</v>
       </c>
@@ -6434,7 +6456,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="6" t="s">
         <v>567</v>
       </c>
@@ -6445,7 +6467,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="6" t="s">
         <v>570</v>
       </c>
@@ -6472,32 +6494,32 @@
         <v>576</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>220</v>
+        <v>577</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>221</v>
+        <v>578</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="6" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="6" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>581</v>
+        <v>226</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>582</v>
+        <v>227</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6511,7 +6533,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="s">
         <v>586</v>
       </c>
@@ -6538,43 +6560,43 @@
         <v>592</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="6" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>506</v>
+        <v>596</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>507</v>
+        <v>597</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="6" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="6" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>598</v>
+        <v>512</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>599</v>
+        <v>513</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6615,35 +6637,35 @@
         <v>609</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>403</v>
+        <v>610</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>404</v>
+        <v>611</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>614</v>
+        <v>409</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="s">
         <v>616</v>
       </c>
@@ -6665,7 +6687,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="s">
         <v>622</v>
       </c>
@@ -6714,43 +6736,43 @@
         <v>634</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>521</v>
+        <v>635</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>522</v>
+        <v>636</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="6" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>524</v>
+        <v>638</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>525</v>
+        <v>639</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>637</v>
+        <v>527</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>638</v>
+        <v>528</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="6" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>640</v>
+        <v>530</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>641</v>
+        <v>531</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6791,53 +6813,53 @@
         <v>651</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>530</v>
+        <v>652</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>531</v>
+        <v>653</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="6" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>533</v>
+        <v>655</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>534</v>
+        <v>656</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="6" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="B237" s="5" t="s">
         <v>536</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>654</v>
+        <v>537</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>656</v>
+        <v>539</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>657</v>
+        <v>540</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="6" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="C239" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C239" s="5" t="s">
         <v>660</v>
       </c>
     </row>
@@ -6848,7 +6870,7 @@
       <c r="B240" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="C240" s="5" t="s">
         <v>663</v>
       </c>
     </row>
@@ -6857,54 +6879,54 @@
         <v>664</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>220</v>
+        <v>665</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>208</v>
+        <v>668</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="5" t="s">
-        <v>668</v>
+      <c r="A243" s="6" t="s">
+        <v>670</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C243" s="5" t="s">
-        <v>300</v>
+        <v>226</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="C244" s="5" t="s">
-        <v>671</v>
+        <v>214</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="6" t="s">
-        <v>672</v>
+      <c r="A245" s="5" t="s">
+        <v>674</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>673</v>
+        <v>305</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>674</v>
+        <v>306</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6952,7 +6974,7 @@
       </c>
     </row>
     <row r="250" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="5" t="s">
+      <c r="A250" s="6" t="s">
         <v>687</v>
       </c>
       <c r="B250" s="5" t="s">
@@ -6974,7 +6996,7 @@
       </c>
     </row>
     <row r="252" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="6" t="s">
+      <c r="A252" s="5" t="s">
         <v>693</v>
       </c>
       <c r="B252" s="5" t="s">
@@ -6996,36 +7018,36 @@
       </c>
     </row>
     <row r="254" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="5" t="s">
+      <c r="A254" s="6" t="s">
         <v>699</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>296</v>
+        <v>700</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>297</v>
+        <v>701</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="6" t="s">
-        <v>703</v>
+      <c r="A256" s="5" t="s">
+        <v>705</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>704</v>
+        <v>302</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>705</v>
+        <v>303</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7040,36 +7062,36 @@
       </c>
     </row>
     <row r="258" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="1" t="s">
+      <c r="A258" s="6" t="s">
         <v>709</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>578</v>
+        <v>710</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>579</v>
+        <v>711</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="1" t="s">
-        <v>710</v>
+      <c r="A259" s="6" t="s">
+        <v>712</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>714</v>
+        <v>584</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>715</v>
+        <v>585</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7088,43 +7110,43 @@
         <v>719</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>296</v>
+        <v>720</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>297</v>
+        <v>721</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>299</v>
+        <v>723</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>300</v>
+        <v>724</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>722</v>
+        <v>302</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>723</v>
+        <v>303</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>725</v>
+        <v>305</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>726</v>
+        <v>306</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7139,40 +7161,40 @@
       </c>
     </row>
     <row r="267" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="5" t="s">
+      <c r="A267" s="1" t="s">
         <v>730</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>643</v>
+        <v>731</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="5" t="s">
-        <v>731</v>
+        <v>732</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="1" t="s">
+        <v>733</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="5" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>735</v>
+        <v>649</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="270" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="5" t="s">
         <v>737</v>
       </c>
       <c r="B270" s="5" t="s">
@@ -7182,8 +7204,8 @@
         <v>739</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="1" t="s">
+    <row r="271" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="5" t="s">
         <v>740</v>
       </c>
       <c r="B271" s="5" t="s">
@@ -7200,56 +7222,56 @@
       <c r="B272" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="C272" s="1" t="s">
+      <c r="C272" s="5" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="5" t="s">
+    <row r="273" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="1" t="s">
         <v>746</v>
       </c>
       <c r="B273" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="C273" s="1" t="s">
+      <c r="C273" s="5" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="5" t="s">
+      <c r="A274" s="1" t="s">
         <v>749</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>185</v>
+        <v>750</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="5" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="1" t="s">
-        <v>754</v>
+      <c r="A276" s="5" t="s">
+        <v>755</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>755</v>
+        <v>191</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="1" t="s">
+      <c r="A277" s="5" t="s">
         <v>757</v>
       </c>
       <c r="B277" s="5" t="s">
@@ -7289,29 +7311,29 @@
         <v>767</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>483</v>
+        <v>768</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>769</v>
-      </c>
-      <c r="C281" s="5" t="s">
         <v>770</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>772</v>
-      </c>
-      <c r="C282" s="5" t="s">
         <v>773</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7326,7 +7348,7 @@
       </c>
     </row>
     <row r="284" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="5" t="s">
+      <c r="A284" s="1" t="s">
         <v>777</v>
       </c>
       <c r="B284" s="5" t="s">
@@ -7348,7 +7370,7 @@
       </c>
     </row>
     <row r="286" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="1" t="s">
+      <c r="A286" s="5" t="s">
         <v>783</v>
       </c>
       <c r="B286" s="5" t="s">
@@ -7440,89 +7462,89 @@
         <v>807</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>512</v>
+        <v>808</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>513</v>
+        <v>809</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>550</v>
+        <v>518</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>551</v>
+        <v>519</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>547</v>
+        <v>815</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="298" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>814</v>
+        <v>556</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>815</v>
+        <v>557</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>817</v>
+        <v>553</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>818</v>
-      </c>
-      <c r="D299" s="1" t="s">
-        <v>819</v>
+        <v>554</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B300" s="5" t="s">
         <v>820</v>
       </c>
-      <c r="B300" s="5" t="s">
+      <c r="C300" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="C300" s="5" t="s">
+    </row>
+    <row r="301" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="1" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="301" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="1" t="s">
+      <c r="B301" s="5" t="s">
         <v>823</v>
       </c>
-      <c r="B301" s="5" t="s">
+      <c r="C301" s="5" t="s">
         <v>824</v>
       </c>
-      <c r="C301" s="5" t="s">
+      <c r="D301" s="1" t="s">
         <v>825</v>
       </c>
     </row>
@@ -7537,48 +7559,48 @@
         <v>828</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
         <v>829</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>125</v>
+        <v>830</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="304" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>90</v>
+        <v>833</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>91</v>
+        <v>834</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>832</v>
+        <v>131</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>833</v>
+        <v>132</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>835</v>
+        <v>96</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>836</v>
+        <v>97</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7597,32 +7619,32 @@
         <v>840</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>832</v>
+        <v>841</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>833</v>
+        <v>842</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>845</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>846</v>
+        <v>838</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7632,7 +7654,7 @@
       <c r="B311" s="5" t="s">
         <v>848</v>
       </c>
-      <c r="C311" s="1" t="s">
+      <c r="C311" s="5" t="s">
         <v>849</v>
       </c>
     </row>
@@ -7644,29 +7666,29 @@
         <v>851</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>349</v>
+        <v>852</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>857</v>
+        <v>355</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7710,40 +7732,40 @@
         <v>868</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>343</v>
+        <v>869</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>346</v>
+        <v>872</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>873</v>
+        <v>349</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>876</v>
+        <v>352</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7907,7 +7929,7 @@
       <c r="B336" s="5" t="s">
         <v>920</v>
       </c>
-      <c r="C336" s="5" t="s">
+      <c r="C336" s="1" t="s">
         <v>921</v>
       </c>
     </row>
@@ -7918,7 +7940,7 @@
       <c r="B337" s="5" t="s">
         <v>923</v>
       </c>
-      <c r="C337" s="5" t="s">
+      <c r="C337" s="1" t="s">
         <v>924</v>
       </c>
     </row>
@@ -7940,7 +7962,7 @@
       <c r="B339" s="5" t="s">
         <v>929</v>
       </c>
-      <c r="C339" s="1" t="s">
+      <c r="C339" s="5" t="s">
         <v>930</v>
       </c>
     </row>
@@ -7962,7 +7984,7 @@
       <c r="B341" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="C341" s="5" t="s">
+      <c r="C341" s="1" t="s">
         <v>936</v>
       </c>
     </row>
@@ -8004,32 +8026,32 @@
         <v>946</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>503</v>
+        <v>947</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>504</v>
+        <v>948</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>951</v>
+        <v>509</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>952</v>
+        <v>510</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8037,32 +8059,32 @@
         <v>953</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>848</v>
+        <v>954</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>849</v>
+        <v>955</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>958</v>
+        <v>854</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>959</v>
+        <v>855</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8120,7 +8142,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
         <v>975</v>
       </c>
@@ -8131,70 +8153,70 @@
         <v>977</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
         <v>978</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
         <v>986</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>970</v>
+        <v>987</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="361" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>991</v>
+        <v>976</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>992</v>
+        <v>977</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8219,7 +8241,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
         <v>999</v>
       </c>
@@ -8237,18 +8259,18 @@
       <c r="B366" s="5" t="s">
         <v>1003</v>
       </c>
-      <c r="C366" s="1" t="s">
+      <c r="C366" s="5" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
         <v>1005</v>
       </c>
       <c r="B367" s="5" t="s">
         <v>1006</v>
       </c>
-      <c r="C367" s="1" t="s">
+      <c r="C367" s="5" t="s">
         <v>1007</v>
       </c>
     </row>
@@ -8257,40 +8279,40 @@
         <v>1008</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>991</v>
+        <v>1009</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>992</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>340</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>868</v>
+        <v>997</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>343</v>
+        <v>998</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>870</v>
+        <v>1016</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>346</v>
@@ -8298,10 +8320,10 @@
     </row>
     <row r="372" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>1014</v>
+        <v>874</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>349</v>
@@ -8309,10 +8331,10 @@
     </row>
     <row r="373" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>1016</v>
+        <v>876</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>352</v>
@@ -8320,34 +8342,34 @@
     </row>
     <row r="374" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>1019</v>
+        <v>355</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>1022</v>
+        <v>358</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="B376" s="7" t="s">
+      <c r="B376" s="5" t="s">
         <v>1024</v>
       </c>
-      <c r="C376" s="8" t="s">
+      <c r="C376" s="1" t="s">
         <v>1025</v>
       </c>
     </row>
@@ -8367,65 +8389,65 @@
         <v>1029</v>
       </c>
       <c r="B378" s="7" t="s">
-        <v>890</v>
+        <v>1030</v>
       </c>
       <c r="C378" s="8" t="s">
-        <v>891</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B379" s="7" t="s">
-        <v>893</v>
-      </c>
-      <c r="C379" s="8" t="s">
-        <v>894</v>
+        <v>1032</v>
+      </c>
+      <c r="B379" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>1034</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B380" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="C380" s="1" t="s">
-        <v>343</v>
+        <v>1035</v>
+      </c>
+      <c r="B380" s="7" t="s">
+        <v>896</v>
+      </c>
+      <c r="C380" s="8" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B381" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="C381" s="1" t="s">
-        <v>346</v>
+        <v>1036</v>
+      </c>
+      <c r="B381" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="C381" s="8" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>1034</v>
+        <v>348</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>1035</v>
+        <v>349</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>1037</v>
+        <v>351</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>1038</v>
+        <v>352</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8466,51 +8488,51 @@
         <v>1048</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>90</v>
+        <v>1049</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>91</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>21</v>
+        <v>1052</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>22</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>1051</v>
+        <v>96</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>1051</v>
+        <v>97</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>1053</v>
+        <v>21</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>1054</v>
+        <v>22</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>1057</v>
@@ -8556,7 +8578,7 @@
       <c r="B395" s="5" t="s">
         <v>1068</v>
       </c>
-      <c r="C395" s="5" t="s">
+      <c r="C395" s="1" t="s">
         <v>1069</v>
       </c>
     </row>
@@ -8567,7 +8589,7 @@
       <c r="B396" s="5" t="s">
         <v>1071</v>
       </c>
-      <c r="C396" s="5" t="s">
+      <c r="C396" s="1" t="s">
         <v>1072</v>
       </c>
     </row>
@@ -8631,29 +8653,29 @@
         <v>1088</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>738</v>
+        <v>1089</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>1094</v>
+        <v>744</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>1095</v>
@@ -8725,7 +8747,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="s">
         <v>1114</v>
       </c>
@@ -8747,101 +8769,101 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="s">
         <v>1120</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>45</v>
+        <v>1121</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>46</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>51</v>
+        <v>1124</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>52</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>1124</v>
+        <v>51</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="417" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>1127</v>
+        <v>48</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>1128</v>
+        <v>49</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
         <v>1129</v>
       </c>
-      <c r="B418" s="4" t="s">
+      <c r="B418" s="5" t="s">
         <v>1130</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D418" s="4" t="s">
-        <v>1130</v>
-      </c>
-      <c r="E418" s="4" t="s">
-        <v>1130</v>
-      </c>
-      <c r="F418" s="4"/>
-      <c r="G418" s="4"/>
-    </row>
-    <row r="419" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B420" s="5" t="s">
         <v>1135</v>
+      </c>
+      <c r="B420" s="4" t="s">
+        <v>1136</v>
       </c>
       <c r="C420" s="5" t="s">
         <v>1136</v>
       </c>
+      <c r="D420" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E420" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F420" s="4"/>
+      <c r="G420" s="4"/>
     </row>
     <row r="421" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="s">
@@ -8925,32 +8947,32 @@
         <v>1158</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>890</v>
+        <v>1159</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>891</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>1163</v>
+        <v>896</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>1164</v>
+        <v>897</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8961,29 +8983,29 @@
         <v>1166</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>1019</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>1172</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9002,43 +9024,43 @@
         <v>1176</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>1024</v>
+        <v>1177</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>1025</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>1028</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>1180</v>
+        <v>1030</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>1181</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C438" s="4" t="s">
         <v>1184</v>
+      </c>
+      <c r="C438" s="5" t="s">
+        <v>1034</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9057,32 +9079,32 @@
         <v>1188</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>893</v>
-      </c>
-      <c r="C440" s="5" t="s">
-        <v>894</v>
+        <v>1189</v>
+      </c>
+      <c r="C440" s="4" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>1193</v>
+        <v>899</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>1194</v>
+        <v>900</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9189,78 +9211,92 @@
         <v>1222</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C452" s="1" t="s">
-        <v>300</v>
+        <v>1223</v>
+      </c>
+      <c r="C452" s="5" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C453" s="1" t="s">
-        <v>528</v>
+        <v>1226</v>
+      </c>
+      <c r="C453" s="5" t="s">
+        <v>1227</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>1226</v>
+        <v>305</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>1227</v>
+        <v>306</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>838</v>
+        <v>1230</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>839</v>
+        <v>534</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>835</v>
+        <v>1232</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>836</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="s">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B458" s="9"/>
-      <c r="C458" s="9"/>
-    </row>
-    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B459" s="5"/>
-      <c r="C459" s="5"/>
+        <v>845</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B458" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B459" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B460" s="5"/>
-      <c r="C460" s="5"/>
+      <c r="B460" s="9"/>
+      <c r="C460" s="9"/>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B461" s="5"/>
@@ -9358,8 +9394,16 @@
       <c r="B484" s="5"/>
       <c r="C484" s="5"/>
     </row>
+    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B485" s="5"/>
+      <c r="C485" s="5"/>
+    </row>
+    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B486" s="5"/>
+      <c r="C486" s="5"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E451"/>
+  <autoFilter ref="A1:E453"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
